--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CA419-ACB1-474B-B305-C340C205CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06260178-E766-4826-8C6F-BC21E4703933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3E7616F-F7F5-489A-9E22-D96C637F6662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C8E0278-837C-45C3-BBF9-C99D883A33FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D4546-230D-4DC2-AA61-F9DC4F9EA26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064A2B1-8033-42B8-A399-D4B2B88CA4FD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06260178-E766-4826-8C6F-BC21E4703933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92657CC-A071-4BD1-ACB3-6D3E4E54469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C8E0278-837C-45C3-BBF9-C99D883A33FE}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BB322915-58AF-4BFF-8E56-B285BE8C7CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064A2B1-8033-42B8-A399-D4B2B88CA4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7A071E-9721-4CFD-AF6E-6A9F7EFBB384}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92657CC-A071-4BD1-ACB3-6D3E4E54469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F797E6-4CC6-49B8-B5AF-439114D2C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BB322915-58AF-4BFF-8E56-B285BE8C7CDB}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{B047458E-F6AC-477B-8787-809D33622EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7A071E-9721-4CFD-AF6E-6A9F7EFBB384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE7C1F4-B2EB-4C94-A198-F0D1C35D3F5A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
